--- a/Project5 Beoordeling_Richard_Swinkels.xlsx
+++ b/Project5 Beoordeling_Richard_Swinkels.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\Leerjaar 2\Module 5\Project\Algemene informatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\excel\Persoonlijke-Beoordelingen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A518CC20-1CCC-402D-8819-541E1A27D658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49355B7F-5C60-42DF-89A6-198DAA866347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
   <si>
     <t>Groep1</t>
   </si>
@@ -341,10 +341,10 @@
     <t>Te vinden in mijn persoonlijke video op Github https://github.com/Project5LRJ/Persoonlijke-Video-s en in de repos https://github.com/Project5LRJ/MoveApp en https://github.com/Project5LRJ/Beheersysteem</t>
   </si>
   <si>
-    <t>App is te vinden in onze Github repository en is tweetalig https://github.com/Project5LRJ/MoveApp</t>
-  </si>
-  <si>
-    <t>Moet nog worden opgeleverd.</t>
+    <t>App is te vinden in onze Github repository en is tweetalig https://github.com/Project5LRJ/MoveApp, ons beheersysteem is ook tweetalig, te vinden op https://github.com/Project5LRJ/Beheersysteem</t>
+  </si>
+  <si>
+    <t>Alle wekelijkse blogs en instructies voor zowel Nederlands als Engels zijn ingeleverd op ItsLearning</t>
   </si>
 </sst>
 </file>
@@ -878,10 +878,10 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -918,7 +918,7 @@
       </c>
       <c r="E4" s="6" t="str">
         <f>E17</f>
-        <v/>
+        <v>G</v>
       </c>
       <c r="F4" s="6" t="str">
         <f>F17</f>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="E13" s="8" t="str">
         <f>IF(AND(E5="v",COUNTIF(E14:E16,"v")+COUNTIF(E14:E16,"g")=3),"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F13" s="8" t="str">
         <f>IF(AND(F5="v",COUNTIF(F14:F16,"v")+COUNTIF(F14:F16,"g")=3),"V","O")</f>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="E14" s="1" t="str">
         <f>UPPER(E52)</f>
-        <v/>
+        <v>V</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="E17" s="8" t="str">
         <f>IF(COUNTIF(E18:E22,"v")=5,IF(E13="v","G",""),E13)</f>
-        <v/>
+        <v>G</v>
       </c>
       <c r="F17" s="8" t="str">
         <f>IF(COUNTIF(F18:F22,"v")=5,IF(F13="v","G",""),F13)</f>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="E51" s="8" t="str">
         <f>IF(AND(E52="v",E53="v"),"G",IF(E52="v","V","O"))</f>
-        <v>O</v>
+        <v>G</v>
       </c>
       <c r="F51" s="8" t="str">
         <f>IF(AND(F52="v",F53="v"),"G",IF(F52="v","V","O"))</f>
@@ -1446,7 +1446,9 @@
       <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="1" t="s">
